--- a/pred_ohlcv/54_23/2019-10-16 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2019-10-16 BSV ohlcv.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -415,7 +415,7 @@
         <v>110300</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
@@ -438,7 +438,7 @@
         <v>110300</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
@@ -507,7 +507,7 @@
         <v>110000</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>2</v>
@@ -530,7 +530,7 @@
         <v>109800</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>2</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2761,7 +2761,7 @@
         <v>111000</v>
       </c>
       <c r="F104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -2784,7 +2784,7 @@
         <v>111200</v>
       </c>
       <c r="F105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -2807,7 +2807,7 @@
         <v>111300</v>
       </c>
       <c r="F106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -2830,7 +2830,7 @@
         <v>111100</v>
       </c>
       <c r="F107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -2853,7 +2853,7 @@
         <v>111200</v>
       </c>
       <c r="F108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -2876,7 +2876,7 @@
         <v>111300</v>
       </c>
       <c r="F109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -2899,7 +2899,7 @@
         <v>111100</v>
       </c>
       <c r="F110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -2922,7 +2922,7 @@
         <v>111000</v>
       </c>
       <c r="F111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -2945,7 +2945,7 @@
         <v>111000</v>
       </c>
       <c r="F112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -2968,7 +2968,7 @@
         <v>110600</v>
       </c>
       <c r="F113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -3175,7 +3175,7 @@
         <v>110600</v>
       </c>
       <c r="F122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -3198,7 +3198,7 @@
         <v>110800</v>
       </c>
       <c r="F123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -3221,7 +3221,7 @@
         <v>110800</v>
       </c>
       <c r="F124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -3244,7 +3244,7 @@
         <v>110800</v>
       </c>
       <c r="F125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -3474,7 +3474,7 @@
         <v>110300</v>
       </c>
       <c r="F135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -3497,7 +3497,7 @@
         <v>110300</v>
       </c>
       <c r="F136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -3520,7 +3520,7 @@
         <v>110500</v>
       </c>
       <c r="F137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -3543,7 +3543,7 @@
         <v>110500</v>
       </c>
       <c r="F138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -3566,7 +3566,7 @@
         <v>110500</v>
       </c>
       <c r="F139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -3589,7 +3589,7 @@
         <v>110400</v>
       </c>
       <c r="F140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -3612,7 +3612,7 @@
         <v>110400</v>
       </c>
       <c r="F141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -3635,7 +3635,7 @@
         <v>110500</v>
       </c>
       <c r="F142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -3658,7 +3658,7 @@
         <v>110200</v>
       </c>
       <c r="F143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -3681,7 +3681,7 @@
         <v>110400</v>
       </c>
       <c r="F144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -3704,7 +3704,7 @@
         <v>110400</v>
       </c>
       <c r="F145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -3727,7 +3727,7 @@
         <v>110400</v>
       </c>
       <c r="F146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -3750,7 +3750,7 @@
         <v>110200</v>
       </c>
       <c r="F147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -3773,7 +3773,7 @@
         <v>110000</v>
       </c>
       <c r="F148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -4834,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -4949,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="G199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -4972,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="G200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="G206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -5133,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="G207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -5202,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -5248,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -5271,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="G213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -5294,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -5317,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -5340,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="G216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="G217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="G218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -5409,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="G219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -5432,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="G220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -5455,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="G221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -5478,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="G222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -5501,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="G223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="G224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -5547,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="G225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -5570,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="G226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -5593,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="G227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -5616,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="G228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -5639,7 +5639,7 @@
         <v>0</v>
       </c>
       <c r="G229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -5662,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="G230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -5682,10 +5682,10 @@
         <v>108000</v>
       </c>
       <c r="F231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -5705,10 +5705,10 @@
         <v>108100</v>
       </c>
       <c r="F232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -5728,10 +5728,10 @@
         <v>108000</v>
       </c>
       <c r="F233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -5751,10 +5751,10 @@
         <v>108100</v>
       </c>
       <c r="F234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -5774,10 +5774,10 @@
         <v>108000</v>
       </c>
       <c r="F235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -5797,10 +5797,10 @@
         <v>108300</v>
       </c>
       <c r="F236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -5820,10 +5820,10 @@
         <v>108400</v>
       </c>
       <c r="F237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -5843,10 +5843,10 @@
         <v>108300</v>
       </c>
       <c r="F238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -5866,10 +5866,10 @@
         <v>108300</v>
       </c>
       <c r="F239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -5889,10 +5889,10 @@
         <v>107800</v>
       </c>
       <c r="F240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -5915,7 +5915,7 @@
         <v>1</v>
       </c>
       <c r="G241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -5935,10 +5935,10 @@
         <v>108300</v>
       </c>
       <c r="F242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -5958,10 +5958,10 @@
         <v>108300</v>
       </c>
       <c r="F243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -5981,10 +5981,10 @@
         <v>108000</v>
       </c>
       <c r="F244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -6004,10 +6004,10 @@
         <v>108200</v>
       </c>
       <c r="F245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -6027,10 +6027,10 @@
         <v>108400</v>
       </c>
       <c r="F246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
@@ -6050,10 +6050,10 @@
         <v>108400</v>
       </c>
       <c r="F247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -6073,10 +6073,10 @@
         <v>108500</v>
       </c>
       <c r="F248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -6096,10 +6096,10 @@
         <v>108300</v>
       </c>
       <c r="F249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -6119,7 +6119,7 @@
         <v>108500</v>
       </c>
       <c r="F250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -6145,7 +6145,7 @@
         <v>0</v>
       </c>
       <c r="G251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -6165,10 +6165,10 @@
         <v>108300</v>
       </c>
       <c r="F252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -6188,10 +6188,10 @@
         <v>108100</v>
       </c>
       <c r="F253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -6211,10 +6211,10 @@
         <v>108200</v>
       </c>
       <c r="F254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -6234,10 +6234,10 @@
         <v>107900</v>
       </c>
       <c r="F255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
@@ -6257,10 +6257,10 @@
         <v>108000</v>
       </c>
       <c r="F256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -6280,7 +6280,7 @@
         <v>108000</v>
       </c>
       <c r="F257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -6303,7 +6303,7 @@
         <v>108100</v>
       </c>
       <c r="F258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -6326,7 +6326,7 @@
         <v>108000</v>
       </c>
       <c r="F259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -6349,7 +6349,7 @@
         <v>107900</v>
       </c>
       <c r="F260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -6372,7 +6372,7 @@
         <v>107800</v>
       </c>
       <c r="F261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -6395,7 +6395,7 @@
         <v>107800</v>
       </c>
       <c r="F262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -6418,7 +6418,7 @@
         <v>107700</v>
       </c>
       <c r="F263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -6441,7 +6441,7 @@
         <v>107900</v>
       </c>
       <c r="F264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -6464,7 +6464,7 @@
         <v>107700</v>
       </c>
       <c r="F265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -6487,7 +6487,7 @@
         <v>107300</v>
       </c>
       <c r="F266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -6533,7 +6533,7 @@
         <v>107100</v>
       </c>
       <c r="F268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -6717,7 +6717,7 @@
         <v>107700</v>
       </c>
       <c r="F276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -6740,7 +6740,7 @@
         <v>108200</v>
       </c>
       <c r="F277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -6763,7 +6763,7 @@
         <v>107700</v>
       </c>
       <c r="F278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -6786,7 +6786,7 @@
         <v>107800</v>
       </c>
       <c r="F279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -6809,7 +6809,7 @@
         <v>107700</v>
       </c>
       <c r="F280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -6832,7 +6832,7 @@
         <v>107600</v>
       </c>
       <c r="F281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -6855,7 +6855,7 @@
         <v>107500</v>
       </c>
       <c r="F282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -6993,7 +6993,7 @@
         <v>107700</v>
       </c>
       <c r="F288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -7016,7 +7016,7 @@
         <v>107700</v>
       </c>
       <c r="F289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -7039,7 +7039,7 @@
         <v>107700</v>
       </c>
       <c r="F290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -7062,7 +7062,7 @@
         <v>107700</v>
       </c>
       <c r="F291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -7085,7 +7085,7 @@
         <v>107200</v>
       </c>
       <c r="F292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -7154,7 +7154,7 @@
         <v>107600</v>
       </c>
       <c r="F295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -7177,7 +7177,7 @@
         <v>107900</v>
       </c>
       <c r="F296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -7200,7 +7200,7 @@
         <v>107800</v>
       </c>
       <c r="F297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -7223,7 +7223,7 @@
         <v>107900</v>
       </c>
       <c r="F298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -7246,7 +7246,7 @@
         <v>108000</v>
       </c>
       <c r="F299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -7269,10 +7269,10 @@
         <v>108000</v>
       </c>
       <c r="F300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -7292,10 +7292,10 @@
         <v>107800</v>
       </c>
       <c r="F301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -7315,10 +7315,10 @@
         <v>107800</v>
       </c>
       <c r="F302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
@@ -7338,10 +7338,10 @@
         <v>108000</v>
       </c>
       <c r="F303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
@@ -7361,10 +7361,10 @@
         <v>108200</v>
       </c>
       <c r="F304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
@@ -7384,10 +7384,10 @@
         <v>108400</v>
       </c>
       <c r="F305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="G306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
@@ -7430,10 +7430,10 @@
         <v>108300</v>
       </c>
       <c r="F307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
@@ -7453,10 +7453,10 @@
         <v>108600</v>
       </c>
       <c r="F308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
@@ -7476,10 +7476,10 @@
         <v>108600</v>
       </c>
       <c r="F309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
@@ -7502,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="G310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
@@ -7522,10 +7522,10 @@
         <v>108600</v>
       </c>
       <c r="F311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
@@ -7548,7 +7548,7 @@
         <v>0</v>
       </c>
       <c r="G312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
@@ -7568,10 +7568,10 @@
         <v>108600</v>
       </c>
       <c r="F313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
@@ -7594,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="G314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
@@ -7617,7 +7617,7 @@
         <v>0</v>
       </c>
       <c r="G315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
@@ -7640,7 +7640,7 @@
         <v>0</v>
       </c>
       <c r="G316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
@@ -7663,7 +7663,7 @@
         <v>0</v>
       </c>
       <c r="G317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
@@ -7686,7 +7686,7 @@
         <v>0</v>
       </c>
       <c r="G318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
@@ -7709,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="G319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
@@ -7801,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="G323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
@@ -7824,7 +7824,7 @@
         <v>0</v>
       </c>
       <c r="G324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
@@ -7847,7 +7847,7 @@
         <v>0</v>
       </c>
       <c r="G325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
@@ -7870,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="G326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
@@ -7893,7 +7893,7 @@
         <v>0</v>
       </c>
       <c r="G327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
@@ -7916,7 +7916,7 @@
         <v>0</v>
       </c>
       <c r="G328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
@@ -7939,7 +7939,7 @@
         <v>0</v>
       </c>
       <c r="G329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
@@ -7962,7 +7962,7 @@
         <v>0</v>
       </c>
       <c r="G330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
@@ -7985,7 +7985,7 @@
         <v>0</v>
       </c>
       <c r="G331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
@@ -8008,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="G332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="G345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="G346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="G347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
@@ -8373,10 +8373,10 @@
         <v>108000</v>
       </c>
       <c r="F348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
@@ -8396,7 +8396,7 @@
         <v>108000</v>
       </c>
       <c r="F349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -8419,7 +8419,7 @@
         <v>108200</v>
       </c>
       <c r="F350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -8442,10 +8442,10 @@
         <v>108300</v>
       </c>
       <c r="F351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
@@ -8465,10 +8465,10 @@
         <v>107700</v>
       </c>
       <c r="F352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
@@ -8534,13 +8534,13 @@
         <v>107900</v>
       </c>
       <c r="F355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>